--- a/data/trans_orig/P1429-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1429-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4405</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1492</v>
+        <v>1005</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10240</v>
+        <v>9747</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009297588714379154</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00314916050465458</v>
+        <v>0.002120726083933638</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02161269541958711</v>
+        <v>0.02057201794725962</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>10627</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5668</v>
+        <v>5771</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18602</v>
+        <v>18062</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03465046228981176</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01848297189672642</v>
+        <v>0.01881719556822347</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06065715451585546</v>
+        <v>0.05889558813010316</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -786,19 +786,19 @@
         <v>15032</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8781</v>
+        <v>8479</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23758</v>
+        <v>24485</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01925999636282002</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01125118081767096</v>
+        <v>0.01086352072806566</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03044070892465936</v>
+        <v>0.03137325208967696</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>469371</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>463536</v>
+        <v>464029</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>472284</v>
+        <v>472771</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9907024112856209</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9783873045804128</v>
+        <v>0.9794279820527406</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9968508394953454</v>
+        <v>0.9978792739160665</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>286</v>
@@ -836,19 +836,19 @@
         <v>296053</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>288078</v>
+        <v>288618</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>301012</v>
+        <v>300909</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9653495377101883</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9393428454841447</v>
+        <v>0.9411044118698969</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9815170281032736</v>
+        <v>0.9811828044317765</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>737</v>
@@ -857,19 +857,19 @@
         <v>765425</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>756699</v>
+        <v>755972</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>771676</v>
+        <v>771978</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9807400036371799</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9695592910753406</v>
+        <v>0.968626747910323</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.988748819182329</v>
+        <v>0.9891364792719343</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>2714</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7124</v>
+        <v>8240</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007395823106758339</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00220229589778285</v>
+        <v>0.002204223921090354</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01941471013954418</v>
+        <v>0.0224573072107859</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -982,19 +982,19 @@
         <v>7728</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3045</v>
+        <v>3316</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15801</v>
+        <v>15417</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02078245469464724</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008187690451368202</v>
+        <v>0.008917173090612693</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0424919207805673</v>
+        <v>0.04145941942035537</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -1003,19 +1003,19 @@
         <v>10442</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5083</v>
+        <v>5468</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19897</v>
+        <v>18726</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01413380991911005</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006880279355717476</v>
+        <v>0.007401409455026453</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0269310597562688</v>
+        <v>0.02534693968739608</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>364220</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>359810</v>
+        <v>358694</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>366126</v>
+        <v>366125</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9926041768932417</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9805852898604556</v>
+        <v>0.9775426927892141</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9977977041022171</v>
+        <v>0.9977957760789097</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>356</v>
@@ -1053,19 +1053,19 @@
         <v>364137</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>356064</v>
+        <v>356448</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>368820</v>
+        <v>368549</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9792175453053528</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9575080792194332</v>
+        <v>0.9585405805796446</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9918123095486318</v>
+        <v>0.9910828269093875</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>703</v>
@@ -1074,19 +1074,19 @@
         <v>728357</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>718902</v>
+        <v>720073</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>733716</v>
+        <v>733331</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9858661900808899</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9730689402437313</v>
+        <v>0.9746530603126039</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9931197206442826</v>
+        <v>0.9925985905449736</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>5404</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1731</v>
+        <v>1801</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13315</v>
+        <v>12847</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009964216049966997</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003192144695394316</v>
+        <v>0.003320582280235409</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02454873209473741</v>
+        <v>0.02368603011357141</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1199,19 +1199,19 @@
         <v>7523</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3398</v>
+        <v>3284</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14847</v>
+        <v>14994</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04483692752390252</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02025505615388143</v>
+        <v>0.01957388173672307</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08849239455985196</v>
+        <v>0.08936589357944068</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1220,19 +1220,19 @@
         <v>12927</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6696</v>
+        <v>6902</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22338</v>
+        <v>21526</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01820309096697689</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009428040973957779</v>
+        <v>0.009718540796381587</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0314550309695763</v>
+        <v>0.03031099127450723</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>536985</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>529074</v>
+        <v>529542</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>540658</v>
+        <v>540588</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.990035783950033</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9754512679052625</v>
+        <v>0.9763139698864284</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9968078553046057</v>
+        <v>0.9966794177197645</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>157</v>
@@ -1270,19 +1270,19 @@
         <v>160259</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>152935</v>
+        <v>152788</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>164384</v>
+        <v>164498</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9551630724760974</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9115076054401459</v>
+        <v>0.9106341064205594</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9797449438461181</v>
+        <v>0.980426118263277</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>684</v>
@@ -1291,19 +1291,19 @@
         <v>697244</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>687833</v>
+        <v>688645</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>703475</v>
+        <v>703269</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9817969090330231</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9685449690304239</v>
+        <v>0.9696890087254921</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9905719590260422</v>
+        <v>0.9902814592036183</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>17214</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10668</v>
+        <v>10575</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26725</v>
+        <v>27537</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01390127429052644</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008614836775180101</v>
+        <v>0.00853930692041552</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02158123979689292</v>
+        <v>0.02223729288635268</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -1416,19 +1416,19 @@
         <v>24527</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15343</v>
+        <v>15246</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34622</v>
+        <v>35379</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03433729972666053</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02147962393540475</v>
+        <v>0.02134420775063788</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04847056591438529</v>
+        <v>0.04953033569933755</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -1437,19 +1437,19 @@
         <v>41741</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31283</v>
+        <v>30639</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55590</v>
+        <v>55783</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02137695065875709</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01602111857520679</v>
+        <v>0.01569130545459613</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02846965839980202</v>
+        <v>0.02856804459578781</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1221120</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1211609</v>
+        <v>1210797</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1227666</v>
+        <v>1227759</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9860987257094735</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.978418760203107</v>
+        <v>0.977762707113647</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9913851632248198</v>
+        <v>0.9914606930795843</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>669</v>
@@ -1487,19 +1487,19 @@
         <v>689758</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>679663</v>
+        <v>678906</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>698942</v>
+        <v>699039</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9656627002733394</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9515294340856147</v>
+        <v>0.9504696643006625</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9785203760645949</v>
+        <v>0.9786557922493622</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1875</v>
@@ -1508,19 +1508,19 @@
         <v>1910879</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1897030</v>
+        <v>1896837</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1921337</v>
+        <v>1921981</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9786230493412429</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.971530341600198</v>
+        <v>0.971431955404212</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9839788814247933</v>
+        <v>0.9843086945454038</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>4089</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1006</v>
+        <v>1043</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9408</v>
+        <v>10228</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01166296782367179</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002869922767412893</v>
+        <v>0.002974033142457401</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02683862098362377</v>
+        <v>0.02917722314748401</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -1633,19 +1633,19 @@
         <v>20897</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12612</v>
+        <v>13406</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30821</v>
+        <v>31084</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03674258210414834</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02217465814185758</v>
+        <v>0.02357023620643239</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05418984391884487</v>
+        <v>0.05465347173197791</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -1654,19 +1654,19 @@
         <v>24986</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16896</v>
+        <v>15033</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36109</v>
+        <v>36117</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02717908493689023</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01837912431264761</v>
+        <v>0.01635291251275272</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03927834635815163</v>
+        <v>0.03928751120802251</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>346466</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>341147</v>
+        <v>340327</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>349549</v>
+        <v>349512</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9883370321763282</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9731613790163761</v>
+        <v>0.9708227768525159</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9971300772325871</v>
+        <v>0.9970259668575426</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>519</v>
@@ -1704,19 +1704,19 @@
         <v>547855</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>537931</v>
+        <v>537668</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>556140</v>
+        <v>555346</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9632574178958516</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9458101560811552</v>
+        <v>0.9453465282680219</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9778253418581424</v>
+        <v>0.9764297637935675</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>855</v>
@@ -1725,19 +1725,19 @@
         <v>894321</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>883198</v>
+        <v>883190</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>902411</v>
+        <v>904274</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9728209150631097</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9607216536418484</v>
+        <v>0.9607124887919775</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9816208756873527</v>
+        <v>0.9836470874872475</v>
       </c>
     </row>
     <row r="18">
@@ -1842,19 +1842,19 @@
         <v>73990</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57057</v>
+        <v>59851</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>90690</v>
+        <v>92479</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05925041459166656</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04569121772627638</v>
+        <v>0.04792819551889217</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07262410971574022</v>
+        <v>0.07405650968486661</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>70</v>
@@ -1863,19 +1863,19 @@
         <v>73990</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>58239</v>
+        <v>59285</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>93628</v>
+        <v>93794</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04782898039359771</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03764747263294183</v>
+        <v>0.03832343737884475</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06052409257544</v>
+        <v>0.06063090667368563</v>
       </c>
     </row>
     <row r="20">
@@ -1905,19 +1905,19 @@
         <v>1174770</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1158070</v>
+        <v>1156281</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1191703</v>
+        <v>1188909</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9407495854083334</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.92737589028426</v>
+        <v>0.9259434903151335</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9543087822737236</v>
+        <v>0.9520718044811078</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1474</v>
@@ -1926,19 +1926,19 @@
         <v>1472970</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1453332</v>
+        <v>1453166</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1488721</v>
+        <v>1487675</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9521710196064023</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9394759074245601</v>
+        <v>0.9393690933263145</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9623525273670581</v>
+        <v>0.9616765626211553</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>33826</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23854</v>
+        <v>23730</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46945</v>
+        <v>47321</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01034379738656301</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007294311913824708</v>
+        <v>0.007256485554620313</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01435532688955227</v>
+        <v>0.01447028441275106</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>141</v>
@@ -2051,19 +2051,19 @@
         <v>145291</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>123313</v>
+        <v>121480</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>170989</v>
+        <v>169049</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04300945696517162</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03650334483844006</v>
+        <v>0.03596087081071127</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05061646399676461</v>
+        <v>0.05004236919157448</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>175</v>
@@ -2072,19 +2072,19 @@
         <v>179117</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>152523</v>
+        <v>151716</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>204051</v>
+        <v>204647</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02694178733565091</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02294156821615463</v>
+        <v>0.02282029163217928</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03069208984815133</v>
+        <v>0.03078179814695846</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>3236364</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3223245</v>
+        <v>3222869</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3246336</v>
+        <v>3246460</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.989656202613437</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9856446731104475</v>
+        <v>0.9855297155872489</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9927056880861753</v>
+        <v>0.9927435144453794</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3155</v>
@@ -2122,19 +2122,19 @@
         <v>3232833</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3207135</v>
+        <v>3209075</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3254811</v>
+        <v>3256644</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9569905430348283</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9493835360032353</v>
+        <v>0.9499576308084255</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9634966551615599</v>
+        <v>0.9640391291892887</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6328</v>
@@ -2143,19 +2143,19 @@
         <v>6469197</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6444263</v>
+        <v>6443667</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6495791</v>
+        <v>6496598</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9730582126643491</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9693079101518486</v>
+        <v>0.9692182018530415</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9770584317838452</v>
+        <v>0.9771797083678206</v>
       </c>
     </row>
     <row r="24">
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5884</v>
+        <v>5254</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002408499081134383</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01348794053880806</v>
+        <v>0.01204507093634483</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2510,19 +2510,19 @@
         <v>5746</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1869</v>
+        <v>1927</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12943</v>
+        <v>13341</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01827434676614999</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005942195311518864</v>
+        <v>0.006129223113957333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0411607137450013</v>
+        <v>0.04242681147589635</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -2531,19 +2531,19 @@
         <v>6797</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2760</v>
+        <v>2045</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13657</v>
+        <v>14453</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009054742874172388</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003676327316167689</v>
+        <v>0.002724254576978203</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01819367435949367</v>
+        <v>0.01925313010499194</v>
       </c>
     </row>
     <row r="5">
@@ -2560,7 +2560,7 @@
         <v>435157</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>430324</v>
+        <v>430954</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>436208</v>
@@ -2569,7 +2569,7 @@
         <v>0.9975915009188656</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9865120594611924</v>
+        <v>0.9879549290636552</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2581,19 +2581,19 @@
         <v>308708</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>301511</v>
+        <v>301113</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>312585</v>
+        <v>312527</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.98172565323385</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9588392862549988</v>
+        <v>0.9575731885241038</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9940578046884812</v>
+        <v>0.9938707768860426</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>680</v>
@@ -2602,19 +2602,19 @@
         <v>743865</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>737005</v>
+        <v>736209</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>747902</v>
+        <v>748617</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9909452571258276</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9818063256405063</v>
+        <v>0.980746869895008</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9963236726838324</v>
+        <v>0.9972757454230218</v>
       </c>
     </row>
     <row r="6">
@@ -2719,19 +2719,19 @@
         <v>4099</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1059</v>
+        <v>1041</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10209</v>
+        <v>10159</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.012125681792541</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003131664561657068</v>
+        <v>0.003081067291177002</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03020365371435484</v>
+        <v>0.0300558224618887</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -2740,19 +2740,19 @@
         <v>4099</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1103</v>
+        <v>1052</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9484</v>
+        <v>10244</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005415659874536099</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001456836312429374</v>
+        <v>0.001389672846203664</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01253117259679666</v>
+        <v>0.01353618308339581</v>
       </c>
     </row>
     <row r="8">
@@ -2782,19 +2782,19 @@
         <v>333912</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>327802</v>
+        <v>327852</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>336952</v>
+        <v>336970</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.987874318207459</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9697963462856458</v>
+        <v>0.9699441775381106</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.996868335438343</v>
+        <v>0.996918932708823</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>676</v>
@@ -2803,19 +2803,19 @@
         <v>752709</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>747324</v>
+        <v>746564</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>755705</v>
+        <v>755756</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9945843401254639</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.987468827403204</v>
+        <v>0.9864638169166045</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9985431636875707</v>
+        <v>0.9986103271537963</v>
       </c>
     </row>
     <row r="9">
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13516</v>
+        <v>11219</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003581267522943414</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02147328331057721</v>
+        <v>0.01782382930605352</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2928,19 +2928,19 @@
         <v>6670</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2682</v>
+        <v>2083</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13494</v>
+        <v>14004</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02564031140978235</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01031083272982674</v>
+        <v>0.008006693828040392</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05187419610828636</v>
+        <v>0.05383569612078704</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -2949,19 +2949,19 @@
         <v>8924</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4015</v>
+        <v>3633</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19732</v>
+        <v>18305</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01003199385206534</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004513794094325038</v>
+        <v>0.004084652115134703</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02218250737128459</v>
+        <v>0.02057798168380253</v>
       </c>
     </row>
     <row r="11">
@@ -2978,7 +2978,7 @@
         <v>627161</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>615899</v>
+        <v>618196</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>629415</v>
@@ -2987,7 +2987,7 @@
         <v>0.9964187324770566</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9785267166894228</v>
+        <v>0.9821761706939465</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2999,19 +2999,19 @@
         <v>253459</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>246635</v>
+        <v>246125</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>257447</v>
+        <v>258046</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9743596885902176</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9481258038917135</v>
+        <v>0.9461643038792117</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9896891672701732</v>
+        <v>0.9919933061719596</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>828</v>
@@ -3020,19 +3020,19 @@
         <v>880620</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>869812</v>
+        <v>871239</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>885529</v>
+        <v>885911</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9899680061479347</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9778174926287154</v>
+        <v>0.9794220183161971</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9954862059056749</v>
+        <v>0.9959153478848654</v>
       </c>
     </row>
     <row r="12">
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6952</v>
+        <v>7842</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001716742577052781</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.005998285573448301</v>
+        <v>0.006765836386694615</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -3145,19 +3145,19 @@
         <v>12463</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7130</v>
+        <v>6427</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21678</v>
+        <v>21022</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01629755093317738</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009323987991164944</v>
+        <v>0.008403877117874617</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0283474830903697</v>
+        <v>0.027489404352827</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -3166,19 +3166,19 @@
         <v>14453</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8468</v>
+        <v>8191</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23900</v>
+        <v>23024</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007512909078908281</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004401967907860026</v>
+        <v>0.004257740820132483</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01242400845676496</v>
+        <v>0.01196834874485853</v>
       </c>
     </row>
     <row r="14">
@@ -3195,7 +3195,7 @@
         <v>1157019</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1152057</v>
+        <v>1151167</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>1159009</v>
@@ -3204,7 +3204,7 @@
         <v>0.9982832574229472</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9940017144265521</v>
+        <v>0.9932341636133054</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3216,19 +3216,19 @@
         <v>752259</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>743044</v>
+        <v>743700</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>757592</v>
+        <v>758295</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9837024490668226</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9716525169096311</v>
+        <v>0.9725105956471731</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9906760120088351</v>
+        <v>0.9915961228821254</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1779</v>
@@ -3237,19 +3237,19 @@
         <v>1909278</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1899831</v>
+        <v>1900707</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1915263</v>
+        <v>1915540</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9924870909210918</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9875759915432349</v>
+        <v>0.9880316512551415</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9955980320921399</v>
+        <v>0.9957422591798675</v>
       </c>
     </row>
     <row r="15">
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5860</v>
+        <v>5411</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002096758488138276</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0114761844295206</v>
+        <v>0.01059821326520548</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -3362,19 +3362,19 @@
         <v>42363</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31297</v>
+        <v>29903</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57777</v>
+        <v>55738</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05572219998437587</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04116709617002427</v>
+        <v>0.03933344328219784</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07599716920612709</v>
+        <v>0.07331598543415485</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -3383,19 +3383,19 @@
         <v>43433</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31614</v>
+        <v>31121</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57014</v>
+        <v>57384</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03417669045326568</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02487668687381305</v>
+        <v>0.02448821430332738</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04486327972177758</v>
+        <v>0.04515408894936469</v>
       </c>
     </row>
     <row r="17">
@@ -3412,7 +3412,7 @@
         <v>509525</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>504736</v>
+        <v>505185</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>510596</v>
@@ -3421,7 +3421,7 @@
         <v>0.9979032415118617</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9885238155704797</v>
+        <v>0.9894017867347945</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3433,19 +3433,19 @@
         <v>717883</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>702469</v>
+        <v>704508</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>728949</v>
+        <v>730343</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9442778000156241</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9240028307938729</v>
+        <v>0.9266840145658453</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9588329038299758</v>
+        <v>0.9606665567178022</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1148</v>
@@ -3454,19 +3454,19 @@
         <v>1227410</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1213829</v>
+        <v>1213459</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1239229</v>
+        <v>1239722</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9658233095467343</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9551367202782225</v>
+        <v>0.9548459110506351</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9751233131261868</v>
+        <v>0.9755117856966726</v>
       </c>
     </row>
     <row r="18">
@@ -3571,19 +3571,19 @@
         <v>71024</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55101</v>
+        <v>55462</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>88874</v>
+        <v>88159</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06408735367775076</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04971935573985364</v>
+        <v>0.05004459975783895</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08019376150613179</v>
+        <v>0.07954846838373336</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -3592,19 +3592,19 @@
         <v>71024</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>54415</v>
+        <v>54765</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>90180</v>
+        <v>89537</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05164938511297775</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03957111444486588</v>
+        <v>0.03982580861606316</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06557928039640049</v>
+        <v>0.06511219377646058</v>
       </c>
     </row>
     <row r="20">
@@ -3634,19 +3634,19 @@
         <v>1037219</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1019369</v>
+        <v>1020084</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1053142</v>
+        <v>1052781</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9359126463222492</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9198062384938683</v>
+        <v>0.9204515316162667</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9502806442601464</v>
+        <v>0.9499554002421611</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1244</v>
@@ -3655,19 +3655,19 @@
         <v>1304101</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1284945</v>
+        <v>1285588</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1320710</v>
+        <v>1320360</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9483506148870222</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9344207196035996</v>
+        <v>0.9348878062235396</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9604288855551343</v>
+        <v>0.9601741913839369</v>
       </c>
     </row>
     <row r="21">
@@ -3759,19 +3759,19 @@
         <v>6365</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2117</v>
+        <v>2063</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15289</v>
+        <v>15038</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001860625406359468</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.000618945498981195</v>
+        <v>0.0006030756469485315</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.004469194613415878</v>
+        <v>0.004395881832043299</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>131</v>
@@ -3780,19 +3780,19 @@
         <v>142365</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>121585</v>
+        <v>119046</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>167768</v>
+        <v>169151</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04015022363994926</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.034289714118751</v>
+        <v>0.03357363394698193</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04731459523842707</v>
+        <v>0.04770465021475664</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>136</v>
@@ -3801,19 +3801,19 @@
         <v>148730</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>123506</v>
+        <v>127132</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>175324</v>
+        <v>176891</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.021348651836655</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01772805239146663</v>
+        <v>0.01824847158833099</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0251659150376244</v>
+        <v>0.02539089653872523</v>
       </c>
     </row>
     <row r="23">
@@ -3830,19 +3830,19 @@
         <v>3414542</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3405618</v>
+        <v>3405869</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3418790</v>
+        <v>3418844</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9981393745936405</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.995530805386584</v>
+        <v>0.9956041181679565</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9993810545010188</v>
+        <v>0.9993969243530515</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3156</v>
@@ -3851,19 +3851,19 @@
         <v>3403441</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3378038</v>
+        <v>3376655</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3424221</v>
+        <v>3426760</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9598497763600508</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9526854047615729</v>
+        <v>0.9522953497852436</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.965710285881249</v>
+        <v>0.9664263660530181</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6355</v>
@@ -3872,19 +3872,19 @@
         <v>6817983</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6791389</v>
+        <v>6789822</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6843207</v>
+        <v>6839581</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.978651348163345</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9748340849623757</v>
+        <v>0.9746091034612752</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9822719476085334</v>
+        <v>0.981751528411669</v>
       </c>
     </row>
     <row r="24">
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7558</v>
+        <v>6738</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004509399608682112</v>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01761447517795497</v>
+        <v>0.01570303921394714</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4239,19 +4239,19 @@
         <v>7573</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3186</v>
+        <v>3323</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15177</v>
+        <v>15867</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0218209056222801</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00918146207817435</v>
+        <v>0.009576046398778345</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04373134733029375</v>
+        <v>0.04571989208905259</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -4260,19 +4260,19 @@
         <v>9508</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4392</v>
+        <v>4409</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16662</v>
+        <v>17593</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01225025764739985</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005659108510857708</v>
+        <v>0.005680240591190218</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02146811904782999</v>
+        <v>0.02266650368066844</v>
       </c>
     </row>
     <row r="5">
@@ -4289,7 +4289,7 @@
         <v>427157</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>421534</v>
+        <v>422354</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>429092</v>
@@ -4298,7 +4298,7 @@
         <v>0.9954906003913179</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9823855248220453</v>
+        <v>0.9842969607860531</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4310,19 +4310,19 @@
         <v>339482</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>331878</v>
+        <v>331188</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>343869</v>
+        <v>343732</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9781790943777199</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9562686526697063</v>
+        <v>0.9542801079109481</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9908185379218257</v>
+        <v>0.9904239536012217</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>719</v>
@@ -4331,19 +4331,19 @@
         <v>766639</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>759485</v>
+        <v>758554</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>771755</v>
+        <v>771738</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9877497423526002</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.97853188095217</v>
+        <v>0.977333496319332</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9943408914891422</v>
+        <v>0.9943197594088099</v>
       </c>
     </row>
     <row r="6">
@@ -4448,19 +4448,19 @@
         <v>5193</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1218</v>
+        <v>1252</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12224</v>
+        <v>13256</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01394907872549386</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003271376535339445</v>
+        <v>0.003364210300693884</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03283735115626722</v>
+        <v>0.03560695140704945</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -4469,19 +4469,19 @@
         <v>5193</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1807</v>
+        <v>1240</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13183</v>
+        <v>12989</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006928442032874815</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002411444900247985</v>
+        <v>0.001654546245000648</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01758961580329456</v>
+        <v>0.01733015190378002</v>
       </c>
     </row>
     <row r="8">
@@ -4511,19 +4511,19 @@
         <v>367080</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>360049</v>
+        <v>359017</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>371055</v>
+        <v>371021</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9860509212745061</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9671626488437325</v>
+        <v>0.9643930485929511</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9967286234646605</v>
+        <v>0.9966357896993062</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>702</v>
@@ -4532,19 +4532,19 @@
         <v>744307</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>736317</v>
+        <v>736511</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>747693</v>
+        <v>748260</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9930715579671252</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.982410384196705</v>
+        <v>0.98266984809622</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.997588555099752</v>
+        <v>0.9983454537549994</v>
       </c>
     </row>
     <row r="9">
@@ -4636,19 +4636,19 @@
         <v>3448</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9661</v>
+        <v>9692</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006606793294783334</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001913754213237335</v>
+        <v>0.001911077267279709</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01850976094414868</v>
+        <v>0.0185698416421729</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -4657,19 +4657,19 @@
         <v>9050</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3784</v>
+        <v>3501</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19124</v>
+        <v>18252</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05447480984368727</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0227796125803216</v>
+        <v>0.02107238110801287</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1151198851396406</v>
+        <v>0.1098693366752084</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -4678,19 +4678,19 @@
         <v>12498</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6214</v>
+        <v>6653</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21871</v>
+        <v>22765</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01816427490609761</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009031744005583162</v>
+        <v>0.009669041778683954</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03178744648158384</v>
+        <v>0.03308681992381315</v>
       </c>
     </row>
     <row r="11">
@@ -4707,19 +4707,19 @@
         <v>518466</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>512253</v>
+        <v>512222</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>520915</v>
+        <v>520917</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9933932067052167</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9814902390558513</v>
+        <v>0.981430158357827</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9980862457867626</v>
+        <v>0.9980889227327203</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>146</v>
@@ -4728,19 +4728,19 @@
         <v>157073</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>146999</v>
+        <v>147871</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162339</v>
+        <v>162622</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9455251901563128</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8848801148603594</v>
+        <v>0.8901306633247917</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9772203874196784</v>
+        <v>0.9789276188919872</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>645</v>
@@ -4749,19 +4749,19 @@
         <v>675538</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>666165</v>
+        <v>665271</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>681822</v>
+        <v>681383</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9818357250939024</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9682125535184161</v>
+        <v>0.9669131800761869</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9909682559944168</v>
+        <v>0.9903309582213161</v>
       </c>
     </row>
     <row r="12">
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8292</v>
+        <v>7616</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001753022304460751</v>
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.00721260780607092</v>
+        <v>0.006624498767227635</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -4874,19 +4874,19 @@
         <v>17034</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10436</v>
+        <v>10256</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26961</v>
+        <v>27214</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02062515547371891</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01263634179219063</v>
+        <v>0.01241878211054185</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0326449962067417</v>
+        <v>0.03295216547474455</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -4895,19 +4895,19 @@
         <v>19049</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11297</v>
+        <v>11712</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29243</v>
+        <v>29171</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009642633500255482</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005718401124933979</v>
+        <v>0.005928797188002964</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01480262976878282</v>
+        <v>0.01476633774251473</v>
       </c>
     </row>
     <row r="14">
@@ -4924,7 +4924,7 @@
         <v>1147623</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1141346</v>
+        <v>1142022</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>1149638</v>
@@ -4933,7 +4933,7 @@
         <v>0.9982469776955393</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.992787392193929</v>
+        <v>0.9933755012327723</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -4945,19 +4945,19 @@
         <v>808842</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>798915</v>
+        <v>798662</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>815440</v>
+        <v>815620</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9793748445262811</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9673550037932586</v>
+        <v>0.9670478345252556</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9873636582078094</v>
+        <v>0.9875812178894582</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1883</v>
@@ -4966,19 +4966,19 @@
         <v>1956465</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1946271</v>
+        <v>1946343</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1964217</v>
+        <v>1963802</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9903573664997445</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9851973702312171</v>
+        <v>0.9852336622574852</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.994281598875066</v>
+        <v>0.994071202811997</v>
       </c>
     </row>
     <row r="15">
@@ -5070,19 +5070,19 @@
         <v>4373</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1710</v>
+        <v>1638</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9544</v>
+        <v>9867</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007045993241316295</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002754167101332615</v>
+        <v>0.002639424270169221</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01537524190159971</v>
+        <v>0.01589711270037211</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -5091,19 +5091,19 @@
         <v>21047</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13037</v>
+        <v>12621</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31437</v>
+        <v>31350</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02850894679144111</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01765975083018103</v>
+        <v>0.01709636060960346</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04258285680073127</v>
+        <v>0.04246609594348498</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -5112,19 +5112,19 @@
         <v>25420</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16431</v>
+        <v>17192</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37752</v>
+        <v>37253</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01870565646757844</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01209118929927564</v>
+        <v>0.01265074728668907</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02778051285266379</v>
+        <v>0.02741297502977138</v>
       </c>
     </row>
     <row r="17">
@@ -5141,19 +5141,19 @@
         <v>616333</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>611162</v>
+        <v>610839</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>618996</v>
+        <v>619068</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9929540067586837</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9846247580984003</v>
+        <v>0.9841028872996279</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9972458328986674</v>
+        <v>0.9973605757298307</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>680</v>
@@ -5162,19 +5162,19 @@
         <v>717197</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>706807</v>
+        <v>706894</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>725207</v>
+        <v>725623</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9714910532085589</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9574171431992686</v>
+        <v>0.9575339040565153</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.982340249169819</v>
+        <v>0.9829036393903967</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1272</v>
@@ -5183,19 +5183,19 @@
         <v>1333530</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1321198</v>
+        <v>1321697</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1342519</v>
+        <v>1341758</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9812943435324215</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9722194871473364</v>
+        <v>0.9725870249702286</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9879088107007243</v>
+        <v>0.987349252713311</v>
       </c>
     </row>
     <row r="18">
@@ -5300,19 +5300,19 @@
         <v>61247</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48003</v>
+        <v>46627</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>78941</v>
+        <v>81041</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05660424942708727</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04436381245673809</v>
+        <v>0.04309255019196694</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07295661223157687</v>
+        <v>0.07489751184002312</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -5321,19 +5321,19 @@
         <v>61247</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48443</v>
+        <v>46394</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>80552</v>
+        <v>79898</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04473308985450336</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03538163493122825</v>
+        <v>0.03388505159549092</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05883298533464272</v>
+        <v>0.05835499821427799</v>
       </c>
     </row>
     <row r="20">
@@ -5363,19 +5363,19 @@
         <v>1020778</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1003084</v>
+        <v>1000984</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1034022</v>
+        <v>1035398</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9433957505729127</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.927043387768423</v>
+        <v>0.925102488159977</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9556361875432619</v>
+        <v>0.9569074498080331</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1212</v>
@@ -5384,19 +5384,19 @@
         <v>1307923</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1288618</v>
+        <v>1289272</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1320727</v>
+        <v>1322776</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9552669101454966</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9411670146653573</v>
+        <v>0.9416450017857221</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9646183650687717</v>
+        <v>0.9661149484045092</v>
       </c>
     </row>
     <row r="21">
@@ -5488,19 +5488,19 @@
         <v>11772</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6140</v>
+        <v>6189</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19446</v>
+        <v>21556</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003476940496109741</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001813440262599058</v>
+        <v>0.001827830620190365</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.005743399648553257</v>
+        <v>0.006366669430594068</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>105</v>
@@ -5509,19 +5509,19 @@
         <v>121143</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>99868</v>
+        <v>98694</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>144992</v>
+        <v>148173</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03430262588397498</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02827833032547693</v>
+        <v>0.02794601464356208</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04105576848373977</v>
+        <v>0.04195637510400124</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>117</v>
@@ -5530,19 +5530,19 @@
         <v>132915</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>112282</v>
+        <v>111572</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>160865</v>
+        <v>157337</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01921481210464194</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01623202252915507</v>
+        <v>0.01612937363591518</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02325543653098533</v>
+        <v>0.02274544561166869</v>
       </c>
     </row>
     <row r="23">
@@ -5559,19 +5559,19 @@
         <v>3373950</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3366276</v>
+        <v>3364166</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3379582</v>
+        <v>3379533</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9965230595038903</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9942566003514461</v>
+        <v>0.9936333305694073</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9981865597374007</v>
+        <v>0.9981721693798105</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3221</v>
@@ -5580,19 +5580,19 @@
         <v>3410453</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3386604</v>
+        <v>3383423</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3431728</v>
+        <v>3432902</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.965697374116025</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9589442315162595</v>
+        <v>0.9580436248959983</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9717216696745229</v>
+        <v>0.9720539853564378</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6433</v>
@@ -5601,19 +5601,19 @@
         <v>6784403</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6756453</v>
+        <v>6759981</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6805036</v>
+        <v>6805746</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9807851878953581</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9767445634690147</v>
+        <v>0.9772545543883306</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9837679774708449</v>
+        <v>0.9838706263640847</v>
       </c>
     </row>
     <row r="24">
@@ -5947,19 +5947,19 @@
         <v>3772</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1251</v>
+        <v>1264</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8917</v>
+        <v>8821</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006872587989998176</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002278667580701427</v>
+        <v>0.002302756598500004</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01624600415176243</v>
+        <v>0.0160704190243109</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -5968,19 +5968,19 @@
         <v>13845</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9135</v>
+        <v>8578</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20661</v>
+        <v>20094</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02842871182778473</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01875712607597918</v>
+        <v>0.01761434791251336</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04242596106890795</v>
+        <v>0.04126138164328751</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -5989,19 +5989,19 @@
         <v>17617</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11963</v>
+        <v>12169</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24993</v>
+        <v>25713</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01700679625541405</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01154851685323348</v>
+        <v>0.0117479687950726</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02412733326305879</v>
+        <v>0.02482243215490335</v>
       </c>
     </row>
     <row r="5">
@@ -6018,19 +6018,19 @@
         <v>545105</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>539960</v>
+        <v>540056</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>547626</v>
+        <v>547613</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9931274120100019</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9837539958482376</v>
+        <v>0.9839295809756906</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9977213324192986</v>
+        <v>0.9976972434015</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>660</v>
@@ -6039,19 +6039,19 @@
         <v>473152</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>466336</v>
+        <v>466903</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>477862</v>
+        <v>478419</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9715712881722154</v>
+        <v>0.9715712881722152</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9575740389310918</v>
+        <v>0.9587386183567124</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9812428739240208</v>
+        <v>0.9823856520874867</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1207</v>
@@ -6060,19 +6060,19 @@
         <v>1018257</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1010881</v>
+        <v>1010161</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1023911</v>
+        <v>1023705</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.982993203744586</v>
+        <v>0.9829932037445859</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9758726667369411</v>
+        <v>0.9751775678450968</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9884514831467667</v>
+        <v>0.9882520312049274</v>
       </c>
     </row>
     <row r="6">
@@ -6167,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4097</v>
+        <v>3332</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001375476786665259</v>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008488442699961808</v>
+        <v>0.006903485484323514</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -6185,19 +6185,19 @@
         <v>13396</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9064</v>
+        <v>8568</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19973</v>
+        <v>20377</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03176074817072298</v>
+        <v>0.03176074817072299</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02148963091286923</v>
+        <v>0.02031340712633133</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04735556622746592</v>
+        <v>0.04831307211777634</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -6206,19 +6206,19 @@
         <v>14060</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8794</v>
+        <v>9211</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20444</v>
+        <v>20815</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01554452292179569</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00972207397985753</v>
+        <v>0.01018318271544964</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02260332916486445</v>
+        <v>0.02301314423148596</v>
       </c>
     </row>
     <row r="8">
@@ -6235,7 +6235,7 @@
         <v>482050</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>478617</v>
+        <v>479382</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>482714</v>
@@ -6244,7 +6244,7 @@
         <v>0.9986245232133347</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9915115573000381</v>
+        <v>0.9930965145156765</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -6256,19 +6256,19 @@
         <v>408379</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>401802</v>
+        <v>401398</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>412711</v>
+        <v>413207</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9682392518292771</v>
+        <v>0.9682392518292769</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9526444337725338</v>
+        <v>0.9516869278822235</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9785103690871304</v>
+        <v>0.9796865928736685</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1044</v>
@@ -6277,19 +6277,19 @@
         <v>890430</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>884046</v>
+        <v>883675</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>895696</v>
+        <v>895279</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9844554770782042</v>
+        <v>0.9844554770782044</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9773966708351356</v>
+        <v>0.976986855768514</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9902779260201426</v>
+        <v>0.9898168172845503</v>
       </c>
     </row>
     <row r="9">
@@ -6381,19 +6381,19 @@
         <v>4948</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2078</v>
+        <v>2155</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11235</v>
+        <v>11028</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01051190163382906</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004414221463082139</v>
+        <v>0.004578822644282745</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02386649780768416</v>
+        <v>0.02342625100631338</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -6402,19 +6402,19 @@
         <v>14999</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9576</v>
+        <v>9308</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26521</v>
+        <v>25433</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07999816147357743</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05107488676316561</v>
+        <v>0.0496442779253083</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1414480250307081</v>
+        <v>0.1356467900045253</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -6423,19 +6423,19 @@
         <v>19948</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12839</v>
+        <v>13081</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31391</v>
+        <v>30427</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03030478998066245</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01950499961863286</v>
+        <v>0.019873244341279</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04768951932918261</v>
+        <v>0.04622430193770807</v>
       </c>
     </row>
     <row r="11">
@@ -6452,19 +6452,19 @@
         <v>465795</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>459508</v>
+        <v>459715</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>468665</v>
+        <v>468588</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9894880983661709</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9761335021923172</v>
+        <v>0.9765737489936863</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9955857785369179</v>
+        <v>0.9954211773557164</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>267</v>
@@ -6473,19 +6473,19 @@
         <v>172498</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>160976</v>
+        <v>162064</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>177921</v>
+        <v>178189</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9200018385264227</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.858551974969293</v>
+        <v>0.8643532099954752</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9489251132368347</v>
+        <v>0.9503557220746919</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>748</v>
@@ -6494,19 +6494,19 @@
         <v>638293</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>626850</v>
+        <v>627814</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>645402</v>
+        <v>645160</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9696952100193375</v>
+        <v>0.9696952100193376</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9523104806708172</v>
+        <v>0.9537756980622919</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9804950003813672</v>
+        <v>0.980126755658721</v>
       </c>
     </row>
     <row r="12">
@@ -6598,19 +6598,19 @@
         <v>16202</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9513</v>
+        <v>9174</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29570</v>
+        <v>31437</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01432587279335568</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008411503649505726</v>
+        <v>0.008111863383129355</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0261457679224132</v>
+        <v>0.02779624993271463</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -6619,19 +6619,19 @@
         <v>27697</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20952</v>
+        <v>20793</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36665</v>
+        <v>36000</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03234374244102355</v>
+        <v>0.03234374244102354</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02446732668284515</v>
+        <v>0.02428102904008492</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04281538895904465</v>
+        <v>0.04203875022446311</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -6640,19 +6640,19 @@
         <v>43899</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34259</v>
+        <v>33277</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59139</v>
+        <v>57615</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02208987127843326</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01723873878637689</v>
+        <v>0.01674456553891234</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02975835049545558</v>
+        <v>0.0289915294389837</v>
       </c>
     </row>
     <row r="14">
@@ -6669,19 +6669,19 @@
         <v>1114767</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1101399</v>
+        <v>1099532</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1121456</v>
+        <v>1121795</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9856741272066444</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9738542320775866</v>
+        <v>0.9722037500672862</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9915884963504943</v>
+        <v>0.9918881366168707</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1170</v>
@@ -6690,19 +6690,19 @@
         <v>828647</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>819679</v>
+        <v>820344</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>835392</v>
+        <v>835551</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9676562575589766</v>
+        <v>0.9676562575589763</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9571846110409554</v>
+        <v>0.957961249775537</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9755326733171548</v>
+        <v>0.9757189709599151</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2270</v>
@@ -6711,19 +6711,19 @@
         <v>1943413</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1928173</v>
+        <v>1929697</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1953053</v>
+        <v>1954035</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9779101287215668</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9702416495045449</v>
+        <v>0.971008470561016</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9827612612136231</v>
+        <v>0.9832554344610877</v>
       </c>
     </row>
     <row r="15">
@@ -6815,19 +6815,19 @@
         <v>2621</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6592</v>
+        <v>6829</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004633875824953195</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001309827389608538</v>
+        <v>0.001257360987378941</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01165577826552234</v>
+        <v>0.01207437537261121</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -6836,19 +6836,19 @@
         <v>51278</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41864</v>
+        <v>41466</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62141</v>
+        <v>62166</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06202219054836446</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05063608088180802</v>
+        <v>0.05015372283805385</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07516134918807998</v>
+        <v>0.07519173816317798</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>100</v>
@@ -6857,19 +6857,19 @@
         <v>53899</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43907</v>
+        <v>44594</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66325</v>
+        <v>65020</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03871079621153428</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03153448101374267</v>
+        <v>0.03202779712652272</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04763536579486184</v>
+        <v>0.04669827553821002</v>
       </c>
     </row>
     <row r="17">
@@ -6886,19 +6886,19 @@
         <v>562957</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>558986</v>
+        <v>558749</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>564837</v>
+        <v>564867</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9953661241750469</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9883442217344778</v>
+        <v>0.9879256246273901</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9986901726103915</v>
+        <v>0.9987426390126212</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1188</v>
@@ -6907,19 +6907,19 @@
         <v>775491</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>764628</v>
+        <v>764603</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>784905</v>
+        <v>785303</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9379778094516353</v>
+        <v>0.9379778094516354</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9248386508119198</v>
+        <v>0.9248082618368223</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9493639191181917</v>
+        <v>0.9498462771619461</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1729</v>
@@ -6928,19 +6928,19 @@
         <v>1338448</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1326022</v>
+        <v>1327327</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1348440</v>
+        <v>1347753</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9612892037884655</v>
+        <v>0.9612892037884656</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9523646342051381</v>
+        <v>0.95330172446179</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9684655189862572</v>
+        <v>0.9679722028734773</v>
       </c>
     </row>
     <row r="18">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2763</v>
+        <v>2943</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002182923984267607</v>
@@ -7044,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01164507346289472</v>
+        <v>0.01240556642225398</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>96</v>
@@ -7053,19 +7053,19 @@
         <v>51401</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41796</v>
+        <v>42163</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63292</v>
+        <v>63872</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06107290607024082</v>
+        <v>0.0610729060702408</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04965967330428653</v>
+        <v>0.05009672516774</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07520106039844561</v>
+        <v>0.07589058893698035</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>97</v>
@@ -7074,19 +7074,19 @@
         <v>51919</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41703</v>
+        <v>41066</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63533</v>
+        <v>63340</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0481238268164161</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03865439496527847</v>
+        <v>0.03806423494882626</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05888852949078468</v>
+        <v>0.05871003996931774</v>
       </c>
     </row>
     <row r="20">
@@ -7103,7 +7103,7 @@
         <v>236710</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>234465</v>
+        <v>234285</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>237228</v>
@@ -7112,7 +7112,7 @@
         <v>0.9978170760157323</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9883549265371053</v>
+        <v>0.9875944335777455</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -7124,19 +7124,19 @@
         <v>790238</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>778347</v>
+        <v>777767</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>799843</v>
+        <v>799476</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9389270939297593</v>
+        <v>0.9389270939297591</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.924798939601555</v>
+        <v>0.9241094110630199</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9503403266957139</v>
+        <v>0.9499032748322601</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1170</v>
@@ -7145,19 +7145,19 @@
         <v>1026948</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1015334</v>
+        <v>1015527</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1037164</v>
+        <v>1037801</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9518761731835838</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9411114705092154</v>
+        <v>0.9412899600306824</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9613456050347214</v>
+        <v>0.9619357650511737</v>
       </c>
     </row>
     <row r="21">
@@ -7249,19 +7249,19 @@
         <v>28725</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20160</v>
+        <v>20511</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43947</v>
+        <v>42997</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.008359850425646673</v>
+        <v>0.008359850425646674</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005866992943767275</v>
+        <v>0.005969127361673801</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01278961658099467</v>
+        <v>0.01251322056348417</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>314</v>
@@ -7270,19 +7270,19 @@
         <v>172617</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>154566</v>
+        <v>152926</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>192860</v>
+        <v>192485</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04767074203809066</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04268584297071402</v>
+        <v>0.0422329264124674</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05326109760259173</v>
+        <v>0.0531575077406584</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>348</v>
@@ -7291,19 +7291,19 @@
         <v>201342</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>179976</v>
+        <v>179425</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>224693</v>
+        <v>227327</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02853031338385955</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02550272778727766</v>
+        <v>0.02542469764441283</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03183921332234373</v>
+        <v>0.0322124250428692</v>
       </c>
     </row>
     <row r="23">
@@ -7320,19 +7320,19 @@
         <v>3407384</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3392162</v>
+        <v>3393112</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3415949</v>
+        <v>3415598</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9916401495743533</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9872103834190052</v>
+        <v>0.987486779436516</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9941330070562325</v>
+        <v>0.9940308726383262</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4909</v>
@@ -7341,19 +7341,19 @@
         <v>3448405</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3428162</v>
+        <v>3428537</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3466456</v>
+        <v>3468096</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9523292579619093</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9467389023974084</v>
+        <v>0.9468424922593417</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9573141570292862</v>
+        <v>0.9577670735875329</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8168</v>
@@ -7362,19 +7362,19 @@
         <v>6855788</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6832437</v>
+        <v>6829803</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6877154</v>
+        <v>6877705</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9714696866161404</v>
+        <v>0.9714696866161405</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9681607866776564</v>
+        <v>0.9677875749571309</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9744972722127224</v>
+        <v>0.9745753023555873</v>
       </c>
     </row>
     <row r="24">
